--- a/data/pca/factorExposure/factorExposure_2019-03-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1245002373028865</v>
+        <v>-0.07826759152466221</v>
       </c>
       <c r="C2">
-        <v>-0.0006185289864920195</v>
+        <v>0.03533635734752451</v>
       </c>
       <c r="D2">
-        <v>0.04942421201193583</v>
+        <v>0.01227513161002406</v>
       </c>
       <c r="E2">
-        <v>-0.1181377914094772</v>
+        <v>0.04019380359074346</v>
       </c>
       <c r="F2">
-        <v>-0.1047316371430457</v>
+        <v>0.1405872191120233</v>
       </c>
       <c r="G2">
-        <v>-0.01619056310511496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1028528059823996</v>
+      </c>
+      <c r="H2">
+        <v>-0.05725098108305093</v>
+      </c>
+      <c r="I2">
+        <v>0.02761394939177052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2217757096219964</v>
+        <v>-0.1684439663509213</v>
       </c>
       <c r="C3">
-        <v>0.1204926377832844</v>
+        <v>0.08869828092020519</v>
       </c>
       <c r="D3">
-        <v>-0.03872712650375453</v>
+        <v>-0.03638301052980037</v>
       </c>
       <c r="E3">
-        <v>-0.3323353857799906</v>
+        <v>-0.01334579016454373</v>
       </c>
       <c r="F3">
-        <v>-0.02216279542847446</v>
+        <v>0.3742290218722522</v>
       </c>
       <c r="G3">
-        <v>-0.1022133882032413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.08853790984910122</v>
+      </c>
+      <c r="H3">
+        <v>-0.2802761889450712</v>
+      </c>
+      <c r="I3">
+        <v>0.1788166490910528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09675292614362589</v>
+        <v>-0.07545398853682102</v>
       </c>
       <c r="C4">
-        <v>0.03584259759804904</v>
+        <v>0.0355572258491553</v>
       </c>
       <c r="D4">
-        <v>0.02553205894994652</v>
+        <v>-0.02813235985755715</v>
       </c>
       <c r="E4">
-        <v>-0.07638867829187401</v>
+        <v>0.03582841893532963</v>
       </c>
       <c r="F4">
-        <v>-0.03708090013722552</v>
+        <v>0.08204849776338262</v>
       </c>
       <c r="G4">
-        <v>-0.03532442238497101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04667898212272754</v>
+      </c>
+      <c r="H4">
+        <v>-0.02628467223083244</v>
+      </c>
+      <c r="I4">
+        <v>0.03510702922848109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01775076914941758</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.008018784703169978</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009684465995408405</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005280134458732489</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.00234759647356784</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02129874158957921</v>
+      </c>
+      <c r="H6">
+        <v>-0.000440657507897006</v>
+      </c>
+      <c r="I6">
+        <v>-0.01191857958897591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0414410846513439</v>
+        <v>-0.03550049968472382</v>
       </c>
       <c r="C7">
-        <v>0.008804557744741835</v>
+        <v>0.004854533111857908</v>
       </c>
       <c r="D7">
-        <v>0.03483439723731085</v>
+        <v>-0.04008371794115895</v>
       </c>
       <c r="E7">
-        <v>-0.07358800495410595</v>
+        <v>0.02809314135543631</v>
       </c>
       <c r="F7">
-        <v>0.0542724147590923</v>
+        <v>0.05586207649214905</v>
       </c>
       <c r="G7">
-        <v>0.004678846894143054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006518669521043743</v>
+      </c>
+      <c r="H7">
+        <v>-0.04742872148933547</v>
+      </c>
+      <c r="I7">
+        <v>-0.002839120368504118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0430546847024041</v>
+        <v>-0.03111151528324349</v>
       </c>
       <c r="C8">
-        <v>0.04647139772669929</v>
+        <v>0.0400629374262183</v>
       </c>
       <c r="D8">
-        <v>0.005275819960053415</v>
+        <v>-0.02967854064738553</v>
       </c>
       <c r="E8">
-        <v>-0.06965344302159134</v>
+        <v>0.01670148185870519</v>
       </c>
       <c r="F8">
-        <v>-0.007056018940140573</v>
+        <v>0.07314108489482567</v>
       </c>
       <c r="G8">
-        <v>-0.01680512362390027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02168836493546858</v>
+      </c>
+      <c r="H8">
+        <v>-0.04709767779958297</v>
+      </c>
+      <c r="I8">
+        <v>0.03558756962960984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08493518339400256</v>
+        <v>-0.06279659209784874</v>
       </c>
       <c r="C9">
-        <v>0.0352210983674475</v>
+        <v>0.03129441019577044</v>
       </c>
       <c r="D9">
-        <v>0.0336188596062947</v>
+        <v>-0.03158811948819239</v>
       </c>
       <c r="E9">
-        <v>-0.05973254599498815</v>
+        <v>0.03216926851698192</v>
       </c>
       <c r="F9">
-        <v>-0.02515901802518562</v>
+        <v>0.08202740707093661</v>
       </c>
       <c r="G9">
-        <v>-0.05244697515785535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04250840786015967</v>
+      </c>
+      <c r="H9">
+        <v>-0.02205325937395712</v>
+      </c>
+      <c r="I9">
+        <v>0.01662438419234145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0006401369805717605</v>
+        <v>-0.02090260302117979</v>
       </c>
       <c r="C10">
-        <v>-0.1552937576623952</v>
+        <v>-0.1409623391020519</v>
       </c>
       <c r="D10">
-        <v>-0.02605922121340684</v>
+        <v>0.06585385786048267</v>
       </c>
       <c r="E10">
-        <v>-0.07454220539172532</v>
+        <v>-0.02348548591579125</v>
       </c>
       <c r="F10">
-        <v>-0.01658945192398852</v>
+        <v>0.07067939275433881</v>
       </c>
       <c r="G10">
-        <v>0.02399697745944937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02249962283928475</v>
+      </c>
+      <c r="H10">
+        <v>-0.003499055913575925</v>
+      </c>
+      <c r="I10">
+        <v>0.1087368228270364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05672554391791647</v>
+        <v>-0.04997471575359932</v>
       </c>
       <c r="C11">
-        <v>0.01024672799597428</v>
+        <v>0.02710065646174149</v>
       </c>
       <c r="D11">
-        <v>-0.007674311996061405</v>
+        <v>-0.002713594653181437</v>
       </c>
       <c r="E11">
-        <v>-0.04335196884834773</v>
+        <v>0.006959316288472676</v>
       </c>
       <c r="F11">
-        <v>-0.004850432137648002</v>
+        <v>0.04064086538919853</v>
       </c>
       <c r="G11">
-        <v>0.01896391563969221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006624378012182609</v>
+      </c>
+      <c r="H11">
+        <v>-0.00270530312483353</v>
+      </c>
+      <c r="I11">
+        <v>-0.01070252792841718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04384303351796449</v>
+        <v>-0.04670245276150848</v>
       </c>
       <c r="C12">
-        <v>0.01688618328693237</v>
+        <v>0.02158869545247729</v>
       </c>
       <c r="D12">
-        <v>-0.003894227140168171</v>
+        <v>-0.01231341321211757</v>
       </c>
       <c r="E12">
-        <v>-0.03166660483354503</v>
+        <v>0.009731680910212195</v>
       </c>
       <c r="F12">
-        <v>0.003700572571345167</v>
+        <v>0.01839340982354553</v>
       </c>
       <c r="G12">
-        <v>-0.002509790476470964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001468503071076383</v>
+      </c>
+      <c r="H12">
+        <v>-0.002896846537178215</v>
+      </c>
+      <c r="I12">
+        <v>-0.0121328794054364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06233249365153323</v>
+        <v>-0.04327439623893853</v>
       </c>
       <c r="C13">
-        <v>0.02181655712040498</v>
+        <v>0.02851226775039156</v>
       </c>
       <c r="D13">
-        <v>-0.006456961755608516</v>
+        <v>0.005585313827131281</v>
       </c>
       <c r="E13">
-        <v>-0.1092093181851629</v>
+        <v>0.007875830377719601</v>
       </c>
       <c r="F13">
-        <v>-0.01317480206025378</v>
+        <v>0.1044490372424843</v>
       </c>
       <c r="G13">
-        <v>0.001334031976500953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02065654850093142</v>
+      </c>
+      <c r="H13">
+        <v>-0.04776159347457293</v>
+      </c>
+      <c r="I13">
+        <v>0.0111040319522198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0322556612764688</v>
+        <v>-0.02763298303069535</v>
       </c>
       <c r="C14">
-        <v>0.0113865053855746</v>
+        <v>0.01313290407989272</v>
       </c>
       <c r="D14">
-        <v>0.0252493009897479</v>
+        <v>-0.01073030177650088</v>
       </c>
       <c r="E14">
-        <v>-0.02837882401240932</v>
+        <v>0.02501672492696376</v>
       </c>
       <c r="F14">
-        <v>-0.009861655300557949</v>
+        <v>0.04118974456113084</v>
       </c>
       <c r="G14">
-        <v>0.03196637919783719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02994885379652705</v>
+      </c>
+      <c r="H14">
+        <v>-0.05334301323431675</v>
+      </c>
+      <c r="I14">
+        <v>0.01047708458112648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04669688465985682</v>
+        <v>-0.04479734765846884</v>
       </c>
       <c r="C16">
-        <v>0.02621819603712017</v>
+        <v>0.03277600856985313</v>
       </c>
       <c r="D16">
-        <v>-0.01139940251864974</v>
+        <v>-0.01142713852220414</v>
       </c>
       <c r="E16">
-        <v>-0.03563027471417989</v>
+        <v>0.003425258897519348</v>
       </c>
       <c r="F16">
-        <v>0.006805619911807129</v>
+        <v>0.03444894540784613</v>
       </c>
       <c r="G16">
-        <v>0.00551490737532657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005234970004118272</v>
+      </c>
+      <c r="H16">
+        <v>-0.009191636105133743</v>
+      </c>
+      <c r="I16">
+        <v>-0.01027716779820671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.04921179104094935</v>
+        <v>-0.04778063317113331</v>
       </c>
       <c r="C19">
-        <v>0.03455452293551464</v>
+        <v>0.03999415942424828</v>
       </c>
       <c r="D19">
-        <v>-0.00308093625934642</v>
+        <v>-0.01425682556061697</v>
       </c>
       <c r="E19">
-        <v>-0.07656259955943613</v>
+        <v>0.01630489000330015</v>
       </c>
       <c r="F19">
-        <v>0.01783721047088649</v>
+        <v>0.08204001234434939</v>
       </c>
       <c r="G19">
-        <v>0.0280579067552203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01021690034725103</v>
+      </c>
+      <c r="H19">
+        <v>-0.08472093495136253</v>
+      </c>
+      <c r="I19">
+        <v>0.03572953823481214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03721444847439669</v>
+        <v>-0.01915792506226252</v>
       </c>
       <c r="C20">
-        <v>0.03964141290109147</v>
+        <v>0.02605896526511755</v>
       </c>
       <c r="D20">
-        <v>0.01569816019247743</v>
+        <v>-0.01779168768619493</v>
       </c>
       <c r="E20">
-        <v>-0.06506189966357814</v>
+        <v>0.01845528117418547</v>
       </c>
       <c r="F20">
-        <v>0.01389461183999094</v>
+        <v>0.06656540299420417</v>
       </c>
       <c r="G20">
-        <v>0.01217985174061491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01330086198654061</v>
+      </c>
+      <c r="H20">
+        <v>-0.07221955123336291</v>
+      </c>
+      <c r="I20">
+        <v>0.01985887959498649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03763204096013152</v>
+        <v>-0.0250279808601873</v>
       </c>
       <c r="C21">
-        <v>0.0252545375649602</v>
+        <v>0.02293840747669228</v>
       </c>
       <c r="D21">
-        <v>0.002666779914282341</v>
+        <v>-0.0255608621129206</v>
       </c>
       <c r="E21">
-        <v>-0.09767548813006474</v>
+        <v>0.005721035825390175</v>
       </c>
       <c r="F21">
-        <v>-0.04850270464555365</v>
+        <v>0.07768836618667696</v>
       </c>
       <c r="G21">
-        <v>0.01415792256538112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03557558712668443</v>
+      </c>
+      <c r="H21">
+        <v>-0.02585592219861154</v>
+      </c>
+      <c r="I21">
+        <v>-0.00796179643025955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04840196143852691</v>
+        <v>-0.04368580974279305</v>
       </c>
       <c r="C24">
-        <v>0.01786487545930488</v>
+        <v>0.02157881029581664</v>
       </c>
       <c r="D24">
-        <v>-0.003898665067446329</v>
+        <v>-0.006862139637072617</v>
       </c>
       <c r="E24">
-        <v>-0.04514217789403194</v>
+        <v>0.008613785872124032</v>
       </c>
       <c r="F24">
-        <v>0.005260910061961985</v>
+        <v>0.04106295348117646</v>
       </c>
       <c r="G24">
-        <v>-0.001432414637418247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.004160241291455037</v>
+      </c>
+      <c r="H24">
+        <v>-0.007989784163766325</v>
+      </c>
+      <c r="I24">
+        <v>-0.00797504557886404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05034046092640427</v>
+        <v>-0.04672958334832202</v>
       </c>
       <c r="C25">
-        <v>0.007719740283177534</v>
+        <v>0.02189289783208212</v>
       </c>
       <c r="D25">
-        <v>-0.004444110293787554</v>
+        <v>-0.005599085742283974</v>
       </c>
       <c r="E25">
-        <v>-0.04175065780269175</v>
+        <v>0.007153059924990031</v>
       </c>
       <c r="F25">
-        <v>-0.006515671935138534</v>
+        <v>0.04442510990929528</v>
       </c>
       <c r="G25">
-        <v>0.008592863422176446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003478041893390619</v>
+      </c>
+      <c r="H25">
+        <v>-0.0004799165860148515</v>
+      </c>
+      <c r="I25">
+        <v>-0.01062980328916989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01609727718204966</v>
+        <v>-0.01631001605010919</v>
       </c>
       <c r="C26">
-        <v>0.02707213477958119</v>
+        <v>0.02453738493233281</v>
       </c>
       <c r="D26">
-        <v>0.00213119059631315</v>
+        <v>-0.005729689434650492</v>
       </c>
       <c r="E26">
-        <v>-0.03421342110378389</v>
+        <v>0.0003276988589391852</v>
       </c>
       <c r="F26">
-        <v>-0.01758917036768872</v>
+        <v>0.0452697095265269</v>
       </c>
       <c r="G26">
-        <v>0.02552959047667243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01982620668787551</v>
+      </c>
+      <c r="H26">
+        <v>-0.03253335416859989</v>
+      </c>
+      <c r="I26">
+        <v>-0.003989902118946364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1157063594721689</v>
+        <v>-0.08052371162751289</v>
       </c>
       <c r="C27">
-        <v>0.02890836401671519</v>
+        <v>0.02726653643446597</v>
       </c>
       <c r="D27">
-        <v>0.02236862642899133</v>
+        <v>-0.01328095289135668</v>
       </c>
       <c r="E27">
-        <v>-0.09919365468101286</v>
+        <v>0.03256278665948245</v>
       </c>
       <c r="F27">
-        <v>-0.009444030606367853</v>
+        <v>0.06909082343854206</v>
       </c>
       <c r="G27">
-        <v>-0.008084118474789468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01717944464654084</v>
+      </c>
+      <c r="H27">
+        <v>-0.01149536961818186</v>
+      </c>
+      <c r="I27">
+        <v>0.02157705597805689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.004829498915158143</v>
+        <v>-0.03906294054937288</v>
       </c>
       <c r="C28">
-        <v>-0.2419184730324399</v>
+        <v>-0.2175596474016395</v>
       </c>
       <c r="D28">
-        <v>-0.02730280586468692</v>
+        <v>0.09089614862406097</v>
       </c>
       <c r="E28">
-        <v>-0.04684631811631227</v>
+        <v>-0.03792073464263056</v>
       </c>
       <c r="F28">
-        <v>-0.02106886020829455</v>
+        <v>0.0559837822432831</v>
       </c>
       <c r="G28">
-        <v>0.005222475100180634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02317585030665516</v>
+      </c>
+      <c r="H28">
+        <v>0.002637043103460658</v>
+      </c>
+      <c r="I28">
+        <v>0.1540540021387096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02173475552599168</v>
+        <v>-0.0224448930361075</v>
       </c>
       <c r="C29">
-        <v>0.01928650776900785</v>
+        <v>0.01457658705159214</v>
       </c>
       <c r="D29">
-        <v>0.03011472035622327</v>
+        <v>-0.01642255929698582</v>
       </c>
       <c r="E29">
-        <v>-0.02921442897927872</v>
+        <v>0.02632854564986878</v>
       </c>
       <c r="F29">
-        <v>-0.01557231612949122</v>
+        <v>0.03686528658867849</v>
       </c>
       <c r="G29">
-        <v>0.02491491309347402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03097411385404028</v>
+      </c>
+      <c r="H29">
+        <v>-0.04975753190463804</v>
+      </c>
+      <c r="I29">
+        <v>0.004724811134596658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1043442654082247</v>
+        <v>-0.09290764458411906</v>
       </c>
       <c r="C30">
-        <v>0.01539105636298047</v>
+        <v>0.05506901823854404</v>
       </c>
       <c r="D30">
-        <v>0.02482874218455439</v>
+        <v>0.02075246462259397</v>
       </c>
       <c r="E30">
-        <v>-0.1089119245595653</v>
+        <v>0.03034591096367813</v>
       </c>
       <c r="F30">
-        <v>0.001544932594667868</v>
+        <v>0.1030151538755599</v>
       </c>
       <c r="G30">
-        <v>0.03513618702068504</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01443664467388857</v>
+      </c>
+      <c r="H30">
+        <v>-0.02015583021074955</v>
+      </c>
+      <c r="I30">
+        <v>-0.009680890945067449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06059067125336288</v>
+        <v>-0.06257795518180893</v>
       </c>
       <c r="C31">
-        <v>0.01677024675602469</v>
+        <v>0.02298759343633327</v>
       </c>
       <c r="D31">
-        <v>0.01690899104623873</v>
+        <v>0.003441392059609337</v>
       </c>
       <c r="E31">
-        <v>0.01619310727520052</v>
+        <v>0.02156624492434967</v>
       </c>
       <c r="F31">
-        <v>-0.01202725697334313</v>
+        <v>0.002513541795762939</v>
       </c>
       <c r="G31">
-        <v>0.05869359125140387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04202864194520632</v>
+      </c>
+      <c r="H31">
+        <v>-0.0333437259618547</v>
+      </c>
+      <c r="I31">
+        <v>0.009908935876586167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06699564948104272</v>
+        <v>-0.04575989191715589</v>
       </c>
       <c r="C32">
-        <v>0.02955405193881757</v>
+        <v>0.03925447976359316</v>
       </c>
       <c r="D32">
-        <v>0.008268238209700202</v>
+        <v>-0.03062546554985412</v>
       </c>
       <c r="E32">
-        <v>-0.1088937507091413</v>
+        <v>0.02685884275168696</v>
       </c>
       <c r="F32">
-        <v>0.01147318448053469</v>
+        <v>0.08815727952177449</v>
       </c>
       <c r="G32">
-        <v>0.02321991431712234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01377181381887717</v>
+      </c>
+      <c r="H32">
+        <v>-0.04053022809910396</v>
+      </c>
+      <c r="I32">
+        <v>0.0241623987157412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06896901266156646</v>
+        <v>-0.05894543179077027</v>
       </c>
       <c r="C33">
-        <v>0.03890044574472185</v>
+        <v>0.05366151417721589</v>
       </c>
       <c r="D33">
-        <v>0.009204768776360728</v>
+        <v>-0.0003948980838068415</v>
       </c>
       <c r="E33">
-        <v>-0.07273369648345075</v>
+        <v>0.008327350978832988</v>
       </c>
       <c r="F33">
-        <v>-0.04461802296618147</v>
+        <v>0.07841819871386738</v>
       </c>
       <c r="G33">
-        <v>0.01558145169787835</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03536088843728492</v>
+      </c>
+      <c r="H33">
+        <v>-0.03841432274474687</v>
+      </c>
+      <c r="I33">
+        <v>-0.01174053388006191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04766007188014559</v>
+        <v>-0.04672819084312921</v>
       </c>
       <c r="C34">
-        <v>0.01783877174290391</v>
+        <v>0.02776741535308933</v>
       </c>
       <c r="D34">
-        <v>-0.001941713502264648</v>
+        <v>-0.0142382423980523</v>
       </c>
       <c r="E34">
-        <v>-0.02715442817474944</v>
+        <v>0.01403820658675647</v>
       </c>
       <c r="F34">
-        <v>0.005751385691109462</v>
+        <v>0.03152266766693878</v>
       </c>
       <c r="G34">
-        <v>0.008763488733237533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0001854440618457693</v>
+      </c>
+      <c r="H34">
+        <v>-0.01204154170687042</v>
+      </c>
+      <c r="I34">
+        <v>-0.009267867241066987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01338115797033677</v>
+        <v>-0.01602565316808863</v>
       </c>
       <c r="C36">
-        <v>-0.006252570676337974</v>
+        <v>0.0002232909205810831</v>
       </c>
       <c r="D36">
-        <v>0.005693026718643603</v>
+        <v>-0.004991098642713978</v>
       </c>
       <c r="E36">
-        <v>-0.02361347850792986</v>
+        <v>0.009517048442219666</v>
       </c>
       <c r="F36">
-        <v>-0.007272753925305003</v>
+        <v>0.0287391342504493</v>
       </c>
       <c r="G36">
-        <v>0.01984929118882293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02386864054288125</v>
+      </c>
+      <c r="H36">
+        <v>-0.02830467348303053</v>
+      </c>
+      <c r="I36">
+        <v>-0.004180270412367431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.05748686397140618</v>
+        <v>-0.03562093901324247</v>
       </c>
       <c r="C38">
-        <v>0.0118145177201792</v>
+        <v>0.01242581941328136</v>
       </c>
       <c r="D38">
-        <v>0.02432092356314557</v>
+        <v>-0.007731185630654108</v>
       </c>
       <c r="E38">
-        <v>-0.03275498649859223</v>
+        <v>0.01242707322960763</v>
       </c>
       <c r="F38">
-        <v>-0.003302495269506625</v>
+        <v>0.05082599650533191</v>
       </c>
       <c r="G38">
-        <v>-0.02653322751479838</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02836682624737787</v>
+      </c>
+      <c r="H38">
+        <v>-0.01370892286847111</v>
+      </c>
+      <c r="I38">
+        <v>-0.01179067310311938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07342796682024902</v>
+        <v>-0.05868356307268903</v>
       </c>
       <c r="C39">
-        <v>0.01478661872387523</v>
+        <v>0.03914058513754211</v>
       </c>
       <c r="D39">
-        <v>0.001466895282399892</v>
+        <v>-0.008792145298451962</v>
       </c>
       <c r="E39">
-        <v>-0.04388728059259364</v>
+        <v>0.01560288168651994</v>
       </c>
       <c r="F39">
-        <v>-0.01763116009319756</v>
+        <v>0.05610313060447238</v>
       </c>
       <c r="G39">
-        <v>0.007621197743138272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0169860358291546</v>
+      </c>
+      <c r="H39">
+        <v>-0.0006534412106646195</v>
+      </c>
+      <c r="I39">
+        <v>-0.03086599931041106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.0737793096680554</v>
+        <v>-0.05820798546760512</v>
       </c>
       <c r="C40">
-        <v>0.03629703116740287</v>
+        <v>0.04531094003919776</v>
       </c>
       <c r="D40">
-        <v>0.00835590086519592</v>
+        <v>0.00525462491315477</v>
       </c>
       <c r="E40">
-        <v>-0.1063048003633957</v>
+        <v>0.02197007343099034</v>
       </c>
       <c r="F40">
-        <v>-0.02946310704657592</v>
+        <v>0.09585957668366409</v>
       </c>
       <c r="G40">
-        <v>-0.03457569896860254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02251692097510987</v>
+      </c>
+      <c r="H40">
+        <v>-0.05362515962333349</v>
+      </c>
+      <c r="I40">
+        <v>0.01203794804732229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.004641046486648358</v>
+        <v>-0.003038920877622679</v>
       </c>
       <c r="C41">
-        <v>0.0140077077617864</v>
+        <v>0.01002777346683758</v>
       </c>
       <c r="D41">
-        <v>0.02278400075638494</v>
+        <v>-0.005067700884537621</v>
       </c>
       <c r="E41">
-        <v>-0.01637795684418321</v>
+        <v>0.007838663520397859</v>
       </c>
       <c r="F41">
-        <v>-0.03217943946325362</v>
+        <v>0.01551482150849078</v>
       </c>
       <c r="G41">
-        <v>0.02899710719639614</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03728267671572694</v>
+      </c>
+      <c r="H41">
+        <v>-0.03321794834954084</v>
+      </c>
+      <c r="I41">
+        <v>0.02213459113427831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1355699570370926</v>
+        <v>-0.219701858747144</v>
       </c>
       <c r="C42">
-        <v>0.2100207909192397</v>
+        <v>0.1951266906159025</v>
       </c>
       <c r="D42">
-        <v>-0.9301866363592269</v>
+        <v>-0.01476456613557489</v>
       </c>
       <c r="E42">
-        <v>0.08782695830389846</v>
+        <v>-0.9281242130413674</v>
       </c>
       <c r="F42">
-        <v>0.04259836248146588</v>
+        <v>-0.1491685833951934</v>
       </c>
       <c r="G42">
-        <v>0.07286332602525462</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003564158443123915</v>
+      </c>
+      <c r="H42">
+        <v>-0.005747282948013154</v>
+      </c>
+      <c r="I42">
+        <v>0.05111770703586892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006162355737718108</v>
+        <v>-0.005629684109707682</v>
       </c>
       <c r="C43">
-        <v>0.01736934312579983</v>
+        <v>0.01430687681896809</v>
       </c>
       <c r="D43">
-        <v>0.01595897304343794</v>
+        <v>-0.003877253040074148</v>
       </c>
       <c r="E43">
-        <v>-0.03786252079295281</v>
+        <v>0.008375666120502714</v>
       </c>
       <c r="F43">
-        <v>-0.007220363170513782</v>
+        <v>0.02978550223302813</v>
       </c>
       <c r="G43">
-        <v>0.02033524228082097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02083026879370445</v>
+      </c>
+      <c r="H43">
+        <v>-0.03208631603586926</v>
+      </c>
+      <c r="I43">
+        <v>0.01470841988429341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03834895735481964</v>
+        <v>-0.02860203994150304</v>
       </c>
       <c r="C44">
-        <v>0.04585178808459821</v>
+        <v>0.03823759990148629</v>
       </c>
       <c r="D44">
-        <v>0.01525833397049065</v>
+        <v>-0.0171665901579097</v>
       </c>
       <c r="E44">
-        <v>-0.1242636582887435</v>
+        <v>0.00973846848827205</v>
       </c>
       <c r="F44">
-        <v>-0.08854936908755408</v>
+        <v>0.1236730343237175</v>
       </c>
       <c r="G44">
-        <v>0.03616818033095191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06234391744370645</v>
+      </c>
+      <c r="H44">
+        <v>-0.1028108211630811</v>
+      </c>
+      <c r="I44">
+        <v>0.02146344782420661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02594496275289405</v>
+        <v>-0.02547441909693447</v>
       </c>
       <c r="C46">
-        <v>0.01731776733043013</v>
+        <v>0.03259970451920018</v>
       </c>
       <c r="D46">
-        <v>0.02905170778149331</v>
+        <v>-0.01110896470866098</v>
       </c>
       <c r="E46">
-        <v>-0.02635351405654233</v>
+        <v>0.0271000258499923</v>
       </c>
       <c r="F46">
-        <v>-0.02377706150853995</v>
+        <v>0.04639015003682625</v>
       </c>
       <c r="G46">
-        <v>0.03026000366941055</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02634540862628576</v>
+      </c>
+      <c r="H46">
+        <v>-0.0534450963619062</v>
+      </c>
+      <c r="I46">
+        <v>0.001051166978301351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0871370553526314</v>
+        <v>-0.0919387284759263</v>
       </c>
       <c r="C47">
-        <v>0.01103379732152506</v>
+        <v>0.01747520987409128</v>
       </c>
       <c r="D47">
-        <v>0.01580615405676336</v>
+        <v>0.0008006835905919239</v>
       </c>
       <c r="E47">
-        <v>0.02132661261675904</v>
+        <v>0.02482840113616234</v>
       </c>
       <c r="F47">
-        <v>-0.009351328321758284</v>
+        <v>-0.01155651708763775</v>
       </c>
       <c r="G47">
-        <v>0.03260961187253139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04333479371429459</v>
+      </c>
+      <c r="H47">
+        <v>-0.05759451377829899</v>
+      </c>
+      <c r="I47">
+        <v>0.01562385777728935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01802651518632164</v>
+        <v>-0.01920512483308538</v>
       </c>
       <c r="C48">
-        <v>0.01998581440863616</v>
+        <v>0.01830321373674791</v>
       </c>
       <c r="D48">
-        <v>0.0139590730697508</v>
+        <v>-0.008986568866174726</v>
       </c>
       <c r="E48">
-        <v>-0.0282687168693696</v>
+        <v>0.01275710341248455</v>
       </c>
       <c r="F48">
-        <v>-0.009743560557087954</v>
+        <v>0.0306647487525764</v>
       </c>
       <c r="G48">
-        <v>0.008256006499409954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0153149668740598</v>
+      </c>
+      <c r="H48">
+        <v>-0.0232460916794717</v>
+      </c>
+      <c r="I48">
+        <v>0.01176383971342499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08674671898672506</v>
+        <v>-0.08867825406674477</v>
       </c>
       <c r="C50">
-        <v>0.03835453297527451</v>
+        <v>0.0310989115007606</v>
       </c>
       <c r="D50">
-        <v>0.02396876177079189</v>
+        <v>-0.02273927614667173</v>
       </c>
       <c r="E50">
-        <v>0.01269755173736746</v>
+        <v>0.02290978921678093</v>
       </c>
       <c r="F50">
-        <v>0.0009745949715141905</v>
+        <v>-0.003745974364479842</v>
       </c>
       <c r="G50">
-        <v>0.03938952067256216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.002291613072683565</v>
+      </c>
+      <c r="H50">
+        <v>-0.04099557323174652</v>
+      </c>
+      <c r="I50">
+        <v>-0.01021281887032494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.06206816945949572</v>
+        <v>-0.04542036693006512</v>
       </c>
       <c r="C51">
-        <v>-0.02449810518651133</v>
+        <v>-2.675802971021977e-05</v>
       </c>
       <c r="D51">
-        <v>-0.01105208898015169</v>
+        <v>0.01587126475362194</v>
       </c>
       <c r="E51">
-        <v>-0.08521176034552186</v>
+        <v>0.008738512254119146</v>
       </c>
       <c r="F51">
-        <v>-0.0446023397105866</v>
+        <v>0.09355799403166444</v>
       </c>
       <c r="G51">
-        <v>0.0641668831326267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05183450053191675</v>
+      </c>
+      <c r="H51">
+        <v>-0.0566708386235838</v>
+      </c>
+      <c r="I51">
+        <v>0.02874016427111098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1458520772488677</v>
+        <v>-0.1272455462262814</v>
       </c>
       <c r="C53">
-        <v>0.01098185677322292</v>
+        <v>0.03533514524873357</v>
       </c>
       <c r="D53">
-        <v>0.04710598825563888</v>
+        <v>-0.004569643421873099</v>
       </c>
       <c r="E53">
-        <v>0.04898739764951397</v>
+        <v>0.04874956921562128</v>
       </c>
       <c r="F53">
-        <v>0.008498696130988736</v>
+        <v>-0.04005506669369872</v>
       </c>
       <c r="G53">
-        <v>0.03770768501741115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02321031136630195</v>
+      </c>
+      <c r="H53">
+        <v>-0.001103207326295811</v>
+      </c>
+      <c r="I53">
+        <v>0.03412471391093889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02836184922425778</v>
+        <v>-0.0262834813827679</v>
       </c>
       <c r="C54">
-        <v>0.001043920938255984</v>
+        <v>0.0006452726061051913</v>
       </c>
       <c r="D54">
-        <v>0.02574783969306072</v>
+        <v>-0.005118154169146491</v>
       </c>
       <c r="E54">
-        <v>-0.03484930801467658</v>
+        <v>0.02691718586190667</v>
       </c>
       <c r="F54">
-        <v>-0.04898303666240981</v>
+        <v>0.03811529837637324</v>
       </c>
       <c r="G54">
-        <v>0.01768728090952126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05234356579481519</v>
+      </c>
+      <c r="H54">
+        <v>-0.04194738237243498</v>
+      </c>
+      <c r="I54">
+        <v>0.02983821563799263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1013724042907384</v>
+        <v>-0.1015407138316202</v>
       </c>
       <c r="C55">
-        <v>-0.002593081993138819</v>
+        <v>0.01577270132519229</v>
       </c>
       <c r="D55">
-        <v>0.0371892009062013</v>
+        <v>-0.01655213399480964</v>
       </c>
       <c r="E55">
-        <v>0.01113506998794353</v>
+        <v>0.03147106717789448</v>
       </c>
       <c r="F55">
-        <v>0.03623167659950556</v>
+        <v>-0.0290758301218534</v>
       </c>
       <c r="G55">
-        <v>-0.008451162130789724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005677036843043713</v>
+      </c>
+      <c r="H55">
+        <v>-0.01440993788080908</v>
+      </c>
+      <c r="I55">
+        <v>0.01544933892040821</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1808976884952082</v>
+        <v>-0.1689696728690659</v>
       </c>
       <c r="C56">
-        <v>-0.01344506365600747</v>
+        <v>0.01437113190689205</v>
       </c>
       <c r="D56">
-        <v>0.08553361573838414</v>
+        <v>-0.004205999950564025</v>
       </c>
       <c r="E56">
-        <v>0.09654584725177535</v>
+        <v>0.08462703107402489</v>
       </c>
       <c r="F56">
-        <v>0.08150110239734253</v>
+        <v>-0.08699902451427707</v>
       </c>
       <c r="G56">
-        <v>0.0002079366367577949</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02702976595374898</v>
+      </c>
+      <c r="H56">
+        <v>0.04060648590976933</v>
+      </c>
+      <c r="I56">
+        <v>0.02661697401700915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.09497596841535344</v>
+        <v>-0.07165172418692847</v>
       </c>
       <c r="C57">
-        <v>0.0260368941181297</v>
+        <v>0.03761189279717858</v>
       </c>
       <c r="D57">
-        <v>0.03025486100808993</v>
+        <v>0.005361647410337487</v>
       </c>
       <c r="E57">
-        <v>-0.03825264427135564</v>
+        <v>0.01170474545986133</v>
       </c>
       <c r="F57">
-        <v>-0.027495812592007</v>
+        <v>0.06034839958455311</v>
       </c>
       <c r="G57">
-        <v>0.04352515737592302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0247526585675806</v>
+      </c>
+      <c r="H57">
+        <v>-0.02819169468902222</v>
+      </c>
+      <c r="I57">
+        <v>-0.008189438195828709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1764736124576453</v>
+        <v>-0.2043937683208422</v>
       </c>
       <c r="C58">
-        <v>0.02212604140231566</v>
+        <v>0.1158212504441815</v>
       </c>
       <c r="D58">
-        <v>-0.02820681249537981</v>
+        <v>0.05203193025788728</v>
       </c>
       <c r="E58">
-        <v>-0.1230362865397047</v>
+        <v>-0.008799580484798985</v>
       </c>
       <c r="F58">
-        <v>0.06821730916963012</v>
+        <v>0.2402589771623224</v>
       </c>
       <c r="G58">
-        <v>0.03633144025080073</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1606293946131919</v>
+      </c>
+      <c r="H58">
+        <v>-0.3544902674719929</v>
+      </c>
+      <c r="I58">
+        <v>-0.1368571913246059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.01445088482248453</v>
+        <v>-0.03976575698710894</v>
       </c>
       <c r="C59">
-        <v>-0.2006055757462141</v>
+        <v>-0.1756274692331525</v>
       </c>
       <c r="D59">
-        <v>0.003012049173255748</v>
+        <v>0.09363304944474557</v>
       </c>
       <c r="E59">
-        <v>-0.06338610877845316</v>
+        <v>-0.001034590529396897</v>
       </c>
       <c r="F59">
-        <v>-0.009873368654211026</v>
+        <v>0.07231240742082405</v>
       </c>
       <c r="G59">
-        <v>0.008085581730593989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002437945566869786</v>
+      </c>
+      <c r="H59">
+        <v>0.0189384810069845</v>
+      </c>
+      <c r="I59">
+        <v>0.06241366239732889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1884804453841261</v>
+        <v>-0.1857791920265878</v>
       </c>
       <c r="C60">
-        <v>-0.09642173120941273</v>
+        <v>-0.02523256009773111</v>
       </c>
       <c r="D60">
-        <v>0.001897236889865716</v>
+        <v>0.06631701445156005</v>
       </c>
       <c r="E60">
-        <v>-0.187639016986466</v>
+        <v>0.01099525414718149</v>
       </c>
       <c r="F60">
-        <v>-0.0479362360190339</v>
+        <v>0.2033719044315537</v>
       </c>
       <c r="G60">
-        <v>0.002639786610326233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.08004573499714572</v>
+      </c>
+      <c r="H60">
+        <v>0.2723548175451186</v>
+      </c>
+      <c r="I60">
+        <v>-0.09613942970618215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.05111329710190077</v>
+        <v>-0.04035666228226593</v>
       </c>
       <c r="C61">
-        <v>0.00378968767519599</v>
+        <v>0.02307695473430823</v>
       </c>
       <c r="D61">
-        <v>-0.002404065737441024</v>
+        <v>-0.009422415482402085</v>
       </c>
       <c r="E61">
-        <v>-0.03980200827424448</v>
+        <v>0.005498768147193042</v>
       </c>
       <c r="F61">
-        <v>-0.004808476228192191</v>
+        <v>0.03918728668841257</v>
       </c>
       <c r="G61">
-        <v>0.004575376011762618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008916367902681046</v>
+      </c>
+      <c r="H61">
+        <v>0.002600066113069149</v>
+      </c>
+      <c r="I61">
+        <v>-0.03486211025447968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04733772317160388</v>
+        <v>-0.03121075603862723</v>
       </c>
       <c r="C63">
-        <v>0.004667630281182988</v>
+        <v>0.01720292474022313</v>
       </c>
       <c r="D63">
-        <v>0.01734575286567015</v>
+        <v>-0.005394291775809495</v>
       </c>
       <c r="E63">
-        <v>-0.03698779604380637</v>
+        <v>0.01296812591396882</v>
       </c>
       <c r="F63">
-        <v>-0.003245602484469429</v>
+        <v>0.02892066570075226</v>
       </c>
       <c r="G63">
-        <v>0.02816929196373167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01159870277817218</v>
+      </c>
+      <c r="H63">
+        <v>-0.05081957807125951</v>
+      </c>
+      <c r="I63">
+        <v>0.03467581752293549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.08095009488284506</v>
+        <v>-0.05767430848271005</v>
       </c>
       <c r="C64">
-        <v>0.04770003132966405</v>
+        <v>0.04035897305170633</v>
       </c>
       <c r="D64">
-        <v>0.06149260003925807</v>
+        <v>-0.03091790195000629</v>
       </c>
       <c r="E64">
-        <v>-0.06279927238844676</v>
+        <v>0.04255978442369284</v>
       </c>
       <c r="F64">
-        <v>-0.05934387535541193</v>
+        <v>0.05139693843891718</v>
       </c>
       <c r="G64">
-        <v>-0.0285144864668289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05355989315365018</v>
+      </c>
+      <c r="H64">
+        <v>0.00286558465556897</v>
+      </c>
+      <c r="I64">
+        <v>0.02994221314109647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01968864990040837</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.007489817065977867</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.01012041479933307</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005627551309978654</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001198609050304495</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02157330963662459</v>
+      </c>
+      <c r="H65">
+        <v>0.00291545880096319</v>
+      </c>
+      <c r="I65">
+        <v>-0.01367372567102751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.09235996817018467</v>
+        <v>-0.06995355262301661</v>
       </c>
       <c r="C66">
-        <v>0.0286616059233904</v>
+        <v>0.05499870496400166</v>
       </c>
       <c r="D66">
-        <v>0.03452310663388549</v>
+        <v>-0.006525924795268941</v>
       </c>
       <c r="E66">
-        <v>-0.08059968220057828</v>
+        <v>0.04402288200282593</v>
       </c>
       <c r="F66">
-        <v>-0.0397888650386246</v>
+        <v>0.0702774872026065</v>
       </c>
       <c r="G66">
-        <v>0.01697685453731185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01448162747259209</v>
+      </c>
+      <c r="H66">
+        <v>0.0006651919909024228</v>
+      </c>
+      <c r="I66">
+        <v>-0.04012611451321324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.06436595648961795</v>
+        <v>-0.04731014420445181</v>
       </c>
       <c r="C67">
-        <v>-0.01274328526945764</v>
+        <v>-0.002715710157368497</v>
       </c>
       <c r="D67">
-        <v>0.01233013253248219</v>
+        <v>0.003292540092250424</v>
       </c>
       <c r="E67">
-        <v>-0.02738149736008888</v>
+        <v>0.01023646265338408</v>
       </c>
       <c r="F67">
-        <v>-0.006724947168410824</v>
+        <v>0.03975286084567426</v>
       </c>
       <c r="G67">
-        <v>-0.03707478433010204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03498756637077616</v>
+      </c>
+      <c r="H67">
+        <v>0.008749961718369413</v>
+      </c>
+      <c r="I67">
+        <v>-0.03904446239080572</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.01544888291184933</v>
+        <v>-0.04610866832635888</v>
       </c>
       <c r="C68">
-        <v>-0.2466906590203357</v>
+        <v>-0.2145400890414093</v>
       </c>
       <c r="D68">
-        <v>-0.01695057931052386</v>
+        <v>0.106341234710498</v>
       </c>
       <c r="E68">
-        <v>-0.04536665719989622</v>
+        <v>-0.01579539125828276</v>
       </c>
       <c r="F68">
-        <v>-0.00431338156920017</v>
+        <v>0.05481405671815934</v>
       </c>
       <c r="G68">
-        <v>0.02566053496361866</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.003019734239791087</v>
+      </c>
+      <c r="H68">
+        <v>0.01465049300662322</v>
+      </c>
+      <c r="I68">
+        <v>0.1679053709577593</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07431598954223334</v>
+        <v>-0.07298280026634923</v>
       </c>
       <c r="C69">
-        <v>0.01324832304897483</v>
+        <v>0.02134144162023143</v>
       </c>
       <c r="D69">
-        <v>0.02271492654947231</v>
+        <v>-0.0009204781647479759</v>
       </c>
       <c r="E69">
-        <v>0.01839341993031957</v>
+        <v>0.0308578598888372</v>
       </c>
       <c r="F69">
-        <v>0.0003625433182722003</v>
+        <v>-0.001743528417474462</v>
       </c>
       <c r="G69">
-        <v>0.03028265362566475</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02694985321175378</v>
+      </c>
+      <c r="H69">
+        <v>-0.02751103872851591</v>
+      </c>
+      <c r="I69">
+        <v>-0.005523515531589228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.01608699038760971</v>
+        <v>-0.05207851588501928</v>
       </c>
       <c r="C71">
-        <v>-0.27572538325388</v>
+        <v>-0.2254049362586427</v>
       </c>
       <c r="D71">
-        <v>-0.02148636810919406</v>
+        <v>0.1190118557196662</v>
       </c>
       <c r="E71">
-        <v>-0.0812657979158723</v>
+        <v>-0.0360111799548902</v>
       </c>
       <c r="F71">
-        <v>-0.01217497093060876</v>
+        <v>0.07810220208816922</v>
       </c>
       <c r="G71">
-        <v>0.03313085172700261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01207553278845263</v>
+      </c>
+      <c r="H71">
+        <v>0.02826924903401356</v>
+      </c>
+      <c r="I71">
+        <v>0.1301543749877811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1183749485134914</v>
+        <v>-0.1239007395894726</v>
       </c>
       <c r="C72">
-        <v>-0.003757976238355468</v>
+        <v>0.02796941917331487</v>
       </c>
       <c r="D72">
-        <v>0.04378707330826506</v>
+        <v>-0.001112615594764071</v>
       </c>
       <c r="E72">
-        <v>-0.09913703023857409</v>
+        <v>0.05999781599579855</v>
       </c>
       <c r="F72">
-        <v>0.01112949327968932</v>
+        <v>0.08311337887491521</v>
       </c>
       <c r="G72">
-        <v>-0.02199541876775794</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03933156374423895</v>
+      </c>
+      <c r="H72">
+        <v>0.0157944503984906</v>
+      </c>
+      <c r="I72">
+        <v>-0.06576405307490142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2880731834175443</v>
+        <v>-0.2705139300023073</v>
       </c>
       <c r="C73">
-        <v>-0.1631471840941683</v>
+        <v>-0.04545063063132577</v>
       </c>
       <c r="D73">
-        <v>-0.05362707601341887</v>
+        <v>0.1236808986585656</v>
       </c>
       <c r="E73">
-        <v>-0.3354212255990239</v>
+        <v>-0.03198231379872002</v>
       </c>
       <c r="F73">
-        <v>-0.03653425230667413</v>
+        <v>0.3056610400005386</v>
       </c>
       <c r="G73">
-        <v>-0.04181724328096161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1836201026636679</v>
+      </c>
+      <c r="H73">
+        <v>0.4717096901836079</v>
+      </c>
+      <c r="I73">
+        <v>-0.2833070309558011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1621737170005675</v>
+        <v>-0.1514883614629219</v>
       </c>
       <c r="C74">
-        <v>-0.001564019423993129</v>
+        <v>0.02562344863575504</v>
       </c>
       <c r="D74">
-        <v>0.04228059365840771</v>
+        <v>0.006491685926554444</v>
       </c>
       <c r="E74">
-        <v>0.01866989724717396</v>
+        <v>0.0470983163987696</v>
       </c>
       <c r="F74">
-        <v>0.0594645463558344</v>
+        <v>-0.05351698558276281</v>
       </c>
       <c r="G74">
-        <v>0.04880662318100308</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01682374180535891</v>
+      </c>
+      <c r="H74">
+        <v>0.02528627530278344</v>
+      </c>
+      <c r="I74">
+        <v>0.01389932471398495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2344676218869911</v>
+        <v>-0.242268092109907</v>
       </c>
       <c r="C75">
-        <v>-0.008373205743595671</v>
+        <v>0.02470932410254669</v>
       </c>
       <c r="D75">
-        <v>0.06650089351915929</v>
+        <v>0.0225316609027563</v>
       </c>
       <c r="E75">
-        <v>0.1214997142190899</v>
+        <v>0.1048249324180934</v>
       </c>
       <c r="F75">
-        <v>0.0374980027587266</v>
+        <v>-0.1467795532961319</v>
       </c>
       <c r="G75">
-        <v>0.04477746519840494</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.007002901209888887</v>
+      </c>
+      <c r="H75">
+        <v>0.0147008913121329</v>
+      </c>
+      <c r="I75">
+        <v>0.08982806164483771</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2456158587140528</v>
+        <v>-0.2662757648149199</v>
       </c>
       <c r="C76">
-        <v>-0.01339341201699835</v>
+        <v>0.00991092674168176</v>
       </c>
       <c r="D76">
-        <v>0.1104271992193219</v>
+        <v>-0.01197215177792208</v>
       </c>
       <c r="E76">
-        <v>0.1301478423520853</v>
+        <v>0.1282424002885698</v>
       </c>
       <c r="F76">
-        <v>0.07780179425873569</v>
+        <v>-0.1812497222178854</v>
       </c>
       <c r="G76">
-        <v>0.03718510609913167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05121035762507618</v>
+      </c>
+      <c r="H76">
+        <v>0.03949176110823628</v>
+      </c>
+      <c r="I76">
+        <v>0.02165857461714931</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1377458545387286</v>
+        <v>-0.1280564354902049</v>
       </c>
       <c r="C77">
-        <v>0.03221087517883946</v>
+        <v>0.06267474220947898</v>
       </c>
       <c r="D77">
-        <v>-0.04157259318066864</v>
+        <v>-0.01373225155120958</v>
       </c>
       <c r="E77">
-        <v>-0.1388812234119937</v>
+        <v>-0.03417845265977602</v>
       </c>
       <c r="F77">
-        <v>-0.01814701777519466</v>
+        <v>0.1609227730973902</v>
       </c>
       <c r="G77">
-        <v>-0.04380249304782265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.002864000041100082</v>
+      </c>
+      <c r="H77">
+        <v>-0.2259347433234474</v>
+      </c>
+      <c r="I77">
+        <v>0.2094876767248703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08539593667839872</v>
+        <v>-0.08246008518779846</v>
       </c>
       <c r="C78">
-        <v>0.04369668128133049</v>
+        <v>0.06791041753008618</v>
       </c>
       <c r="D78">
-        <v>-0.01501234415158789</v>
+        <v>-0.03172579324255437</v>
       </c>
       <c r="E78">
-        <v>-0.04857351626455628</v>
+        <v>0.007818055906071413</v>
       </c>
       <c r="F78">
-        <v>-0.006895733513749153</v>
+        <v>0.07365708404303094</v>
       </c>
       <c r="G78">
-        <v>0.01626296367354031</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01256762857173097</v>
+      </c>
+      <c r="H78">
+        <v>-0.02608262152777524</v>
+      </c>
+      <c r="I78">
+        <v>0.02489335377917692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.06285923473425346</v>
+        <v>-0.1488214566649937</v>
       </c>
       <c r="C80">
-        <v>0.01652963780460648</v>
+        <v>-0.4130748940458885</v>
       </c>
       <c r="D80">
-        <v>-0.03028877378680045</v>
+        <v>-0.8810954624894033</v>
       </c>
       <c r="E80">
-        <v>0.03319607800987946</v>
+        <v>-0.05616075967400374</v>
       </c>
       <c r="F80">
-        <v>0.1343757275900196</v>
+        <v>0.05020379497104717</v>
       </c>
       <c r="G80">
-        <v>-0.9412134296767997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04309190295685577</v>
+      </c>
+      <c r="H80">
+        <v>0.05847172307222922</v>
+      </c>
+      <c r="I80">
+        <v>-0.02542931769983634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.166084059823418</v>
+        <v>-0.1782156641371674</v>
       </c>
       <c r="C81">
-        <v>-0.009696410118512211</v>
+        <v>0.00594053019687507</v>
       </c>
       <c r="D81">
-        <v>0.06215271565623189</v>
+        <v>0.005834181913220065</v>
       </c>
       <c r="E81">
-        <v>0.1600099373106615</v>
+        <v>0.08538887246908396</v>
       </c>
       <c r="F81">
-        <v>0.100373598615661</v>
+        <v>-0.1623225564149078</v>
       </c>
       <c r="G81">
-        <v>0.03575607875056281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02789705311124397</v>
+      </c>
+      <c r="H81">
+        <v>0.006470139169125515</v>
+      </c>
+      <c r="I81">
+        <v>0.05662284543824622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09347065818968554</v>
+        <v>-0.06939484411861083</v>
       </c>
       <c r="C83">
-        <v>0.0504869196685664</v>
+        <v>0.05059695541339725</v>
       </c>
       <c r="D83">
-        <v>-0.07243021830224547</v>
+        <v>-0.004722056185194074</v>
       </c>
       <c r="E83">
-        <v>-0.00865000441509808</v>
+        <v>-0.03794233152158573</v>
       </c>
       <c r="F83">
-        <v>-0.05677104436453597</v>
+        <v>0.04560515144202984</v>
       </c>
       <c r="G83">
-        <v>0.02321348843872447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05938248320749307</v>
+      </c>
+      <c r="H83">
+        <v>-0.02435750797286247</v>
+      </c>
+      <c r="I83">
+        <v>0.02269893637933377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2334972466781488</v>
+        <v>-0.2511148125040617</v>
       </c>
       <c r="C85">
-        <v>0.04882424884757264</v>
+        <v>0.04812461284968721</v>
       </c>
       <c r="D85">
-        <v>0.06386737630617831</v>
+        <v>-0.01076659107271575</v>
       </c>
       <c r="E85">
-        <v>0.1590819349225648</v>
+        <v>0.09002392454100307</v>
       </c>
       <c r="F85">
-        <v>0.06063042528206068</v>
+        <v>-0.1850582934197342</v>
       </c>
       <c r="G85">
-        <v>0.02087993166249583</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.003354397328368243</v>
+      </c>
+      <c r="H85">
+        <v>-0.02203574784838396</v>
+      </c>
+      <c r="I85">
+        <v>0.0458550181684733</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04124519199191469</v>
+        <v>-0.02720456279808398</v>
       </c>
       <c r="C86">
-        <v>0.05095211266209511</v>
+        <v>0.06072141708356655</v>
       </c>
       <c r="D86">
-        <v>0.01663676733663477</v>
+        <v>-0.02621029460025692</v>
       </c>
       <c r="E86">
-        <v>-0.06432124160299199</v>
+        <v>0.01148944305474175</v>
       </c>
       <c r="F86">
-        <v>0.002326273267466413</v>
+        <v>0.06876026782716473</v>
       </c>
       <c r="G86">
-        <v>0.030269991234199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.006351798778333412</v>
+      </c>
+      <c r="H86">
+        <v>-0.06577891924587527</v>
+      </c>
+      <c r="I86">
+        <v>0.02738338222753131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02502328659650898</v>
+        <v>-0.03553614886069233</v>
       </c>
       <c r="C87">
-        <v>-0.05128666161559943</v>
+        <v>-0.009931428826896177</v>
       </c>
       <c r="D87">
-        <v>0.00153915018460313</v>
+        <v>0.009143488600095975</v>
       </c>
       <c r="E87">
-        <v>-0.09134546885929044</v>
+        <v>0.004221206900974853</v>
       </c>
       <c r="F87">
-        <v>0.02401607744379832</v>
+        <v>0.1009254863756158</v>
       </c>
       <c r="G87">
-        <v>0.02351884053902632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02263166537453197</v>
+      </c>
+      <c r="H87">
+        <v>-0.01541529814422533</v>
+      </c>
+      <c r="I87">
+        <v>-0.01972605243923161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03812623729180205</v>
+        <v>-0.02961206752111797</v>
       </c>
       <c r="C88">
-        <v>0.03131328633784187</v>
+        <v>0.01437627283848362</v>
       </c>
       <c r="D88">
-        <v>0.006295917503006564</v>
+        <v>-0.01867080817867602</v>
       </c>
       <c r="E88">
-        <v>0.01164833429953559</v>
+        <v>0.01441545066329018</v>
       </c>
       <c r="F88">
-        <v>0.01388434893674878</v>
+        <v>-0.01401037469827506</v>
       </c>
       <c r="G88">
-        <v>0.006417408261213597</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0358112569796436</v>
+      </c>
+      <c r="H88">
+        <v>-0.03648389018510402</v>
+      </c>
+      <c r="I88">
+        <v>-0.02265994578802026</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.004384248405263426</v>
+        <v>-0.06501989263909527</v>
       </c>
       <c r="C89">
-        <v>-0.4137606212532677</v>
+        <v>-0.3461377060848431</v>
       </c>
       <c r="D89">
-        <v>-0.1051605899982214</v>
+        <v>0.1898138729479645</v>
       </c>
       <c r="E89">
-        <v>0.0009913545170112542</v>
+        <v>-0.05806803223592828</v>
       </c>
       <c r="F89">
-        <v>-0.0132242728690731</v>
+        <v>0.03857423918208671</v>
       </c>
       <c r="G89">
-        <v>0.05043625933581123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04093064094390538</v>
+      </c>
+      <c r="H89">
+        <v>-0.05197780389672842</v>
+      </c>
+      <c r="I89">
+        <v>0.264537858190772</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.009015235100118242</v>
+        <v>-0.0461440851463455</v>
       </c>
       <c r="C90">
-        <v>-0.3082699365889387</v>
+        <v>-0.3021068817602699</v>
       </c>
       <c r="D90">
-        <v>-0.04478807856884395</v>
+        <v>0.1467183740285856</v>
       </c>
       <c r="E90">
-        <v>-0.04244578533420681</v>
+        <v>-0.04203181416090246</v>
       </c>
       <c r="F90">
-        <v>-0.01665848160342657</v>
+        <v>0.03536611355267914</v>
       </c>
       <c r="G90">
-        <v>0.04461167865108895</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02204671639158668</v>
+      </c>
+      <c r="H90">
+        <v>-0.01045668587535694</v>
+      </c>
+      <c r="I90">
+        <v>0.2310045412614145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2836347881276082</v>
+        <v>-0.2989604216905795</v>
       </c>
       <c r="C91">
-        <v>0.02739933777612356</v>
+        <v>0.04013815605432038</v>
       </c>
       <c r="D91">
-        <v>0.07578442428431312</v>
+        <v>0.004158831866512566</v>
       </c>
       <c r="E91">
-        <v>0.2881013931753563</v>
+        <v>0.08940309853913182</v>
       </c>
       <c r="F91">
-        <v>0.1041656916970337</v>
+        <v>-0.2908368933724204</v>
       </c>
       <c r="G91">
-        <v>-0.01344414351122436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02344511208376544</v>
+      </c>
+      <c r="H91">
+        <v>0.005134844033253315</v>
+      </c>
+      <c r="I91">
+        <v>0.1090444676785112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.01790417095113037</v>
+        <v>-0.1025518045835161</v>
       </c>
       <c r="C92">
-        <v>-0.4200078818547156</v>
+        <v>-0.4032770180904823</v>
       </c>
       <c r="D92">
-        <v>-0.1644394942793307</v>
+        <v>0.1689708844412965</v>
       </c>
       <c r="E92">
-        <v>0.1299393804926575</v>
+        <v>-0.07834774747734517</v>
       </c>
       <c r="F92">
-        <v>0.07162474887808511</v>
+        <v>-0.1179751802153834</v>
       </c>
       <c r="G92">
-        <v>-0.124882822761231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08732877302330153</v>
+      </c>
+      <c r="H92">
+        <v>-0.4343304569090977</v>
+      </c>
+      <c r="I92">
+        <v>-0.6957568705053047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.007779946380294594</v>
+        <v>-0.05049751349856505</v>
       </c>
       <c r="C93">
-        <v>-0.3739984837246536</v>
+        <v>-0.3606313238939211</v>
       </c>
       <c r="D93">
-        <v>-0.07939991304310974</v>
+        <v>0.1906033475721668</v>
       </c>
       <c r="E93">
-        <v>0.02499736818687504</v>
+        <v>-0.07429162005067333</v>
       </c>
       <c r="F93">
-        <v>0.003372975816208496</v>
+        <v>0.004521506028336377</v>
       </c>
       <c r="G93">
-        <v>-0.03196364681458824</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03522559411786282</v>
+      </c>
+      <c r="H93">
+        <v>0.01967022360457273</v>
+      </c>
+      <c r="I93">
+        <v>0.1661260551990904</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.275968744163582</v>
+        <v>-0.3052732245560968</v>
       </c>
       <c r="C94">
-        <v>-0.06671126666675578</v>
+        <v>0.0002176803943400065</v>
       </c>
       <c r="D94">
-        <v>0.04028819629386197</v>
+        <v>0.04567692186137563</v>
       </c>
       <c r="E94">
-        <v>0.346930199724047</v>
+        <v>0.1300336240739729</v>
       </c>
       <c r="F94">
-        <v>0.4020836566754171</v>
+        <v>-0.3437165645972471</v>
       </c>
       <c r="G94">
-        <v>0.116414826879803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2067424548248299</v>
+      </c>
+      <c r="H94">
+        <v>-0.1319000163470895</v>
+      </c>
+      <c r="I94">
+        <v>0.03562116075555049</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1991997297635746</v>
+        <v>-0.1309094171699927</v>
       </c>
       <c r="C95">
-        <v>-0.02943431117767278</v>
+        <v>0.07281352417329681</v>
       </c>
       <c r="D95">
-        <v>-0.004425505072507017</v>
+        <v>0.07430610335583908</v>
       </c>
       <c r="E95">
-        <v>0.3792245373515416</v>
+        <v>0.03604620630678936</v>
       </c>
       <c r="F95">
-        <v>-0.8420004786506452</v>
+        <v>-0.07115338183213066</v>
       </c>
       <c r="G95">
-        <v>-0.09380045234136922</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8958029102133317</v>
+      </c>
+      <c r="H95">
+        <v>0.1839929539776634</v>
+      </c>
+      <c r="I95">
+        <v>-0.09412949647739391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.22720705745526</v>
+        <v>-0.2098386872229117</v>
       </c>
       <c r="C98">
-        <v>-0.1193441773097296</v>
+        <v>-0.03464174911161519</v>
       </c>
       <c r="D98">
-        <v>-0.05444462518182164</v>
+        <v>0.08811176038554279</v>
       </c>
       <c r="E98">
-        <v>-0.0916059220829696</v>
+        <v>-0.03059158515616594</v>
       </c>
       <c r="F98">
-        <v>-0.04582604841483728</v>
+        <v>0.1580188001596286</v>
       </c>
       <c r="G98">
-        <v>0.03724385764210904</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08634067585674746</v>
+      </c>
+      <c r="H98">
+        <v>0.3249112985987804</v>
+      </c>
+      <c r="I98">
+        <v>-0.1529138634166826</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02144394317928587</v>
+        <v>-0.01627375497107364</v>
       </c>
       <c r="C101">
-        <v>0.01966436498917214</v>
+        <v>0.02648699507804981</v>
       </c>
       <c r="D101">
-        <v>0.03161973099622035</v>
+        <v>-0.01724885417766868</v>
       </c>
       <c r="E101">
-        <v>-0.02974096377737942</v>
+        <v>0.03341899131803029</v>
       </c>
       <c r="F101">
-        <v>-0.01542038740882861</v>
+        <v>0.06675253046730339</v>
       </c>
       <c r="G101">
-        <v>0.02496199098610568</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01778813282348063</v>
+      </c>
+      <c r="H101">
+        <v>-0.1087839521049875</v>
+      </c>
+      <c r="I101">
+        <v>-0.04166350993660231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1210231806444172</v>
+        <v>-0.1201711198576883</v>
       </c>
       <c r="C102">
-        <v>0.01486842882293718</v>
+        <v>0.02096521950316976</v>
       </c>
       <c r="D102">
-        <v>0.03879218643744076</v>
+        <v>-0.0108309641441386</v>
       </c>
       <c r="E102">
-        <v>0.08616128501277291</v>
+        <v>0.05280141116010276</v>
       </c>
       <c r="F102">
-        <v>0.005493779524211494</v>
+        <v>-0.09646006216288355</v>
       </c>
       <c r="G102">
-        <v>-0.01157508508975075</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01738390279896721</v>
+      </c>
+      <c r="H102">
+        <v>0.01800158232106552</v>
+      </c>
+      <c r="I102">
+        <v>0.05016809946525543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01980335773542388</v>
+        <v>-0.03263207479276971</v>
       </c>
       <c r="C103">
-        <v>0.0005351242314090292</v>
+        <v>0.003523566774062769</v>
       </c>
       <c r="D103">
-        <v>0.0134615085876609</v>
+        <v>-0.009997895115939485</v>
       </c>
       <c r="E103">
-        <v>0.03108713395626855</v>
+        <v>0.02188641437816975</v>
       </c>
       <c r="F103">
-        <v>0.01395128427796674</v>
+        <v>-0.02939492235577783</v>
       </c>
       <c r="G103">
-        <v>0.01487740968914734</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01333718854846391</v>
+      </c>
+      <c r="H103">
+        <v>-0.01581428834863444</v>
+      </c>
+      <c r="I103">
+        <v>0.03256524814460512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
